--- a/out/private_topics_couple with kids.xlsx
+++ b/out/private_topics_couple with kids.xlsx
@@ -14,28 +14,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
-    <t>Topic.1</t>
-  </si>
-  <si>
-    <t>Topic.2</t>
-  </si>
-  <si>
-    <t>Topic.3</t>
-  </si>
-  <si>
-    <t>Topic.4</t>
-  </si>
-  <si>
-    <t>Topic.5</t>
-  </si>
-  <si>
-    <t>Topic.6</t>
-  </si>
-  <si>
-    <t>Topic.7</t>
-  </si>
-  <si>
-    <t>Topic.8</t>
+    <t>Topic_1</t>
+  </si>
+  <si>
+    <t>Topic_2</t>
+  </si>
+  <si>
+    <t>Topic_3</t>
+  </si>
+  <si>
+    <t>Topic_4</t>
+  </si>
+  <si>
+    <t>Topic_5</t>
+  </si>
+  <si>
+    <t>Topic_6</t>
+  </si>
+  <si>
+    <t>Topic_7</t>
+  </si>
+  <si>
+    <t>Topic_8</t>
   </si>
   <si>
     <t>1</t>
